--- a/Carlist.xlsx
+++ b/Carlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\FiveM-Cars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F95562-5377-40F4-A745-93B64C80D697}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49E0ABC-D64A-4579-8BDC-600E0440FBC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="56">
   <si>
     <t>Manfacture</t>
   </si>
@@ -163,13 +163,31 @@
     <t xml:space="preserve">no </t>
   </si>
   <si>
-    <t>Fairlady Z Z33</t>
+    <t>Checked</t>
   </si>
   <si>
-    <t>z33</t>
+    <t>Nismo GTR</t>
   </si>
   <si>
-    <t>Checked</t>
+    <t>nismo20</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Nismo 370z</t>
+  </si>
+  <si>
+    <t>Skyline R34</t>
+  </si>
+  <si>
+    <t>skyline</t>
+  </si>
+  <si>
+    <t>180SX</t>
+  </si>
+  <si>
+    <t>180sx</t>
   </si>
 </sst>
 </file>
@@ -543,13 +561,13 @@
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
     <col min="4" max="4" width="20.28515625" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" customWidth="1"/>
     <col min="6" max="7" width="15.140625" customWidth="1"/>
@@ -585,7 +603,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -593,57 +611,99 @@
         <v>33</v>
       </c>
       <c r="B2" s="2">
-        <v>2002</v>
+        <v>2020</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2">
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2002</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="3">
         <v>800</v>
       </c>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="H5" s="2">
+        <v>801</v>
+      </c>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:10">

--- a/Carlist.xlsx
+++ b/Carlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\FiveM-Cars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49E0ABC-D64A-4579-8BDC-600E0440FBC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5482D9-C481-481F-9F96-53EDAD703C2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="56">
   <si>
     <t>Manfacture</t>
   </si>
@@ -561,7 +561,7 @@
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -682,6 +682,9 @@
       <c r="H4" s="3">
         <v>800</v>
       </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
@@ -704,7 +707,9 @@
       <c r="H5" s="2">
         <v>801</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="2"/>

--- a/Carlist.xlsx
+++ b/Carlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\FiveM-Cars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5482D9-C481-481F-9F96-53EDAD703C2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A2F337-D72C-4C3B-9CF4-4BF9BD2E79EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="59">
   <si>
     <t>Manfacture</t>
   </si>
@@ -188,6 +188,15 @@
   </si>
   <si>
     <t>180sx</t>
+  </si>
+  <si>
+    <t>WRX Sti</t>
+  </si>
+  <si>
+    <t>gdwrxsti</t>
+  </si>
+  <si>
+    <t>Subaru</t>
   </si>
 </sst>
 </file>
@@ -561,7 +570,7 @@
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -690,7 +699,9 @@
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>1998</v>
+      </c>
       <c r="C5" s="2" t="s">
         <v>54</v>
       </c>
@@ -712,15 +723,31 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2006</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="H6" s="2">
+        <v>802</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="2"/>

--- a/Carlist.xlsx
+++ b/Carlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\FiveM-Cars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A2F337-D72C-4C3B-9CF4-4BF9BD2E79EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B8ED95-1CC1-408B-8C76-8F983CE965E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="65">
   <si>
     <t>Manfacture</t>
   </si>
@@ -190,20 +190,38 @@
     <t>180sx</t>
   </si>
   <si>
-    <t>WRX Sti</t>
+    <t>Aston Martin</t>
   </si>
   <si>
-    <t>gdwrxsti</t>
+    <t>Can Am Maverick</t>
   </si>
   <si>
-    <t>Subaru</t>
+    <t>can</t>
+  </si>
+  <si>
+    <t>Aston Martin Virage</t>
+  </si>
+  <si>
+    <t>virage</t>
+  </si>
+  <si>
+    <t>Aston Martin DB11</t>
+  </si>
+  <si>
+    <t>db11</t>
+  </si>
+  <si>
+    <t>Tuning bugged</t>
+  </si>
+  <si>
+    <t>Finding an workaround</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -219,6 +237,12 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -241,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -253,6 +277,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -570,7 +597,7 @@
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -581,7 +608,7 @@
     <col min="5" max="5" width="15.85546875" customWidth="1"/>
     <col min="6" max="7" width="15.140625" customWidth="1"/>
     <col min="8" max="8" width="20.42578125" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" customWidth="1"/>
     <col min="10" max="10" width="38.85546875" customWidth="1"/>
     <col min="11" max="26" width="8.7109375" customWidth="1"/>
   </cols>
@@ -724,52 +751,87 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B6" s="2">
-        <v>2006</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="2">
-        <v>802</v>
+      <c r="H6" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="A7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2012</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="A8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3">
+        <v>802</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="2"/>

--- a/Carlist.xlsx
+++ b/Carlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\FiveM-Cars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B8ED95-1CC1-408B-8C76-8F983CE965E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FB5812-8813-483B-808A-C5FEA979BF70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="28800" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="72">
   <si>
     <t>Manfacture</t>
   </si>
@@ -215,6 +215,27 @@
   </si>
   <si>
     <t>Finding an workaround</t>
+  </si>
+  <si>
+    <t>Vantage</t>
+  </si>
+  <si>
+    <t>vantage</t>
+  </si>
+  <si>
+    <t>ast</t>
+  </si>
+  <si>
+    <t>Vanquish</t>
+  </si>
+  <si>
+    <t>Audi</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>r820</t>
   </si>
 </sst>
 </file>
@@ -597,7 +618,7 @@
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -834,37 +855,80 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="A9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>803</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="A10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2013</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3">
+        <v>804</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2">
+        <v>805</v>
+      </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>

--- a/Carlist.xlsx
+++ b/Carlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\FiveM-Cars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FB5812-8813-483B-808A-C5FEA979BF70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143F12E4-18CD-4074-9D34-1BFEBB696D02}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="28800" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="70">
   <si>
     <t>Manfacture</t>
   </si>
@@ -209,12 +209,6 @@
   </si>
   <si>
     <t>db11</t>
-  </si>
-  <si>
-    <t>Tuning bugged</t>
-  </si>
-  <si>
-    <t>Finding an workaround</t>
   </si>
   <si>
     <t>Vantage</t>
@@ -618,7 +612,7 @@
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -848,11 +842,9 @@
         <v>802</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>64</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
@@ -862,10 +854,10 @@
         <v>2019</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>32</v>
@@ -877,7 +869,9 @@
       <c r="H9" s="3">
         <v>803</v>
       </c>
-      <c r="I9" s="3"/>
+      <c r="I9" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10">
@@ -888,10 +882,10 @@
         <v>2013</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>32</v>
@@ -903,21 +897,23 @@
       <c r="H10" s="3">
         <v>804</v>
       </c>
-      <c r="I10" s="3"/>
+      <c r="I10" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B11" s="2">
         <v>2020</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>32</v>
@@ -929,7 +925,9 @@
       <c r="H11" s="2">
         <v>805</v>
       </c>
-      <c r="I11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10">

--- a/Carlist.xlsx
+++ b/Carlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\FiveM-Cars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143F12E4-18CD-4074-9D34-1BFEBB696D02}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F840C7F3-0DCD-44D6-8B27-A24A8FD6511B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7395" yWindow="4185" windowWidth="28800" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="89">
   <si>
     <t>Manfacture</t>
   </si>
@@ -230,6 +230,63 @@
   </si>
   <si>
     <t>r820</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>$212,435</t>
+  </si>
+  <si>
+    <t>$29.990</t>
+  </si>
+  <si>
+    <t>$45,820</t>
+  </si>
+  <si>
+    <t>$7,500</t>
+  </si>
+  <si>
+    <t>TT Coupe S-line</t>
+  </si>
+  <si>
+    <t>tts07</t>
+  </si>
+  <si>
+    <t>RS5-R ABT</t>
+  </si>
+  <si>
+    <t>rs5r</t>
+  </si>
+  <si>
+    <t>RS7 SportBack</t>
+  </si>
+  <si>
+    <t>rs7</t>
+  </si>
+  <si>
+    <t>S8</t>
+  </si>
+  <si>
+    <t>s8plus</t>
+  </si>
+  <si>
+    <t>RS4 B7</t>
+  </si>
+  <si>
+    <t>rs4b7</t>
+  </si>
+  <si>
+    <t>audi</t>
+  </si>
+  <si>
+    <t>RS8</t>
+  </si>
+  <si>
+    <t>rs318</t>
+  </si>
+  <si>
+    <t>Bentley</t>
   </si>
 </sst>
 </file>
@@ -612,7 +669,7 @@
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -656,6 +713,9 @@
       <c r="I1" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
@@ -683,6 +743,9 @@
       <c r="I2" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="J2" s="3" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -710,6 +773,9 @@
       <c r="I3" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="J3" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1">
       <c r="A4" t="s">
@@ -736,6 +802,9 @@
       <c r="I4" t="s">
         <v>32</v>
       </c>
+      <c r="J4" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
@@ -763,6 +832,9 @@
       <c r="I5" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="J5" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="2" t="s">
@@ -931,74 +1003,164 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2007</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="H12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="H14" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="H15" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2006</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="H16" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="A17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="H17" s="2">
+        <v>806</v>
+      </c>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
+      <c r="A18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2008</v>
+      </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1008,7 +1170,9 @@
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="2"/>
+      <c r="A19" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1019,7 +1183,9 @@
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="2"/>
+      <c r="A20" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1030,7 +1196,9 @@
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A21" s="2"/>
+      <c r="A21" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1041,7 +1209,9 @@
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A22" s="2"/>
+      <c r="A22" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1052,7 +1222,9 @@
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A23" s="2"/>
+      <c r="A23" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>

--- a/Carlist.xlsx
+++ b/Carlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\FiveM-Cars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F840C7F3-0DCD-44D6-8B27-A24A8FD6511B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77553434-945C-48FA-8FEB-27EF7226BF12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7395" yWindow="4185" windowWidth="28800" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="90">
   <si>
     <t>Manfacture</t>
   </si>
@@ -286,7 +286,10 @@
     <t>rs318</t>
   </si>
   <si>
-    <t>Bentley</t>
+    <t>nissan Silvia s15</t>
+  </si>
+  <si>
+    <t>nis15</t>
   </si>
 </sst>
 </file>
@@ -669,7 +672,7 @@
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1060,7 +1063,9 @@
       <c r="A14" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="2">
+        <v>2014</v>
+      </c>
       <c r="C14" s="2" t="s">
         <v>79</v>
       </c>
@@ -1077,7 +1082,9 @@
       <c r="H14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I14" s="2"/>
+      <c r="I14" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="2" t="s">
@@ -1102,7 +1109,9 @@
       <c r="H15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I15" s="2"/>
+      <c r="I15" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="2" t="s">
@@ -1127,9 +1136,11 @@
       <c r="H16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="I16" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="18" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>85</v>
       </c>
@@ -1152,27 +1163,39 @@
       <c r="H17" s="2">
         <v>806</v>
       </c>
-      <c r="I17" s="2"/>
+      <c r="I17" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1999</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="2">
-        <v>2008</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="H18" s="2">
+        <v>807</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1183,9 +1206,7 @@
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1196,9 +1217,7 @@
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A21" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1209,9 +1228,7 @@
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A22" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1222,9 +1239,7 @@
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A23" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>

--- a/Carlist.xlsx
+++ b/Carlist.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="155">
   <si>
     <t>Manfacture</t>
   </si>
@@ -345,6 +345,33 @@
   </si>
   <si>
     <t>a80</t>
+  </si>
+  <si>
+    <t>Ferrari</t>
+  </si>
+  <si>
+    <t>Ferrari F50</t>
+  </si>
+  <si>
+    <t>ff50</t>
+  </si>
+  <si>
+    <t>Ferrari 812</t>
+  </si>
+  <si>
+    <t>f812</t>
+  </si>
+  <si>
+    <t>BMW M3 E30</t>
+  </si>
+  <si>
+    <t>m3e30</t>
+  </si>
+  <si>
+    <t>BMW M3 E36</t>
+  </si>
+  <si>
+    <t>m3e36</t>
   </si>
   <si>
     <t>Check</t>
@@ -459,15 +486,21 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
-      <u/>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -489,15 +522,6 @@
     <font>
       <color rgb="FF000000"/>
       <name val="Sans-serif"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Docs-Calibri"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -526,59 +550,44 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1588,97 +1597,97 @@
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="2">
         <v>2017.0</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="E26" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="10" t="s">
+      <c r="E26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G26" s="2"/>
-      <c r="H26" s="10" t="s">
+      <c r="H26" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J26" s="12" t="s">
+      <c r="I26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="3" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="2">
         <v>2017.0</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E27" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="10" t="s">
+      <c r="E27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G27" s="2"/>
-      <c r="H27" s="10" t="s">
+      <c r="H27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J27" s="12" t="s">
+      <c r="I27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="2">
         <v>2016.0</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E28" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="10" t="s">
+      <c r="E28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G28" s="2"/>
-      <c r="H28" s="10">
+      <c r="H28" s="2">
         <v>814.0</v>
       </c>
-      <c r="I28" s="10" t="s">
+      <c r="I28" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="7">
         <v>1998.0</v>
       </c>
       <c r="C29" s="6" t="s">
@@ -1693,74 +1702,138 @@
       <c r="F29" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="15">
+      <c r="G29" s="9"/>
+      <c r="H29" s="7">
         <v>815.0</v>
       </c>
-      <c r="I29" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="17"/>
-      <c r="T29" s="17"/>
-      <c r="U29" s="17"/>
-      <c r="V29" s="17"/>
-      <c r="W29" s="17"/>
-      <c r="X29" s="17"/>
-      <c r="Y29" s="17"/>
-      <c r="Z29" s="17"/>
+      <c r="I29" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="9"/>
+      <c r="Z29" s="9"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="18"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
+      <c r="A30" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" s="13">
+        <v>1995.0</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="G30" s="2"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
+      <c r="H30" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="A31" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" s="13">
+        <v>2018.0</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
+      <c r="H31" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="A32" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="13">
+        <v>1990.0</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
+      <c r="H32" s="13">
+        <v>816.0</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="A33" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="13">
+        <v>1997.0</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
+      <c r="H33" s="13">
+        <v>817.0</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="2"/>
@@ -2206,28 +2279,28 @@
         <v>7</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="J72" s="19" t="s">
-        <v>112</v>
+        <v>120</v>
+      </c>
+      <c r="J72" s="14" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="2" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="G73" s="2"/>
       <c r="H73" s="2">
@@ -2237,43 +2310,43 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="2" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="G74" s="2"/>
       <c r="H74" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="I74" s="2"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="2" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="G75" s="2"/>
       <c r="H75" s="2">
@@ -2283,20 +2356,20 @@
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="2" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="G76" s="2"/>
       <c r="H76" s="2">
@@ -2306,20 +2379,20 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="2" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="G77" s="2"/>
       <c r="H77" s="2">
@@ -2329,20 +2402,20 @@
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="2" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="G78" s="2"/>
       <c r="H78" s="2">
@@ -2352,43 +2425,43 @@
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="G79" s="2"/>
       <c r="H79" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="I79" s="2"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="2" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2">
@@ -2402,16 +2475,16 @@
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="G81" s="2"/>
       <c r="H81" s="2">
@@ -2421,7 +2494,7 @@
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="2" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2" t="s">
@@ -2434,11 +2507,11 @@
         <v>13</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="G82" s="2"/>
       <c r="H82" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="I82" s="2"/>
     </row>
@@ -2448,20 +2521,20 @@
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="G83" s="2"/>
       <c r="H83" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="I83" s="2"/>
     </row>
@@ -2471,16 +2544,16 @@
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="G84" s="2"/>
       <c r="H84" s="2">
@@ -2490,20 +2563,20 @@
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="2" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="G85" s="2"/>
       <c r="H85" s="2">
@@ -2517,16 +2590,16 @@
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="G86" s="2"/>
       <c r="H86" s="2">
@@ -2540,16 +2613,16 @@
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>

--- a/Carlist.xlsx
+++ b/Carlist.xlsx
@@ -7,11 +7,16 @@
   </sheets>
   <definedNames/>
   <calcPr/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7miSVOg59+XBfDAzPBFaFUO2u3xX3Q=="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="157">
   <si>
     <t>Manfacture</t>
   </si>
@@ -372,6 +377,12 @@
   </si>
   <si>
     <t>m3e36</t>
+  </si>
+  <si>
+    <t>Lamborghini Diablo SV</t>
+  </si>
+  <si>
+    <t>ldsv</t>
   </si>
   <si>
     <t>Check</t>
@@ -582,7 +593,7 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
@@ -1731,120 +1742,136 @@
       <c r="A30" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="B30" s="13">
+      <c r="B30" s="2">
         <v>1995.0</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E30" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="13" t="s">
+      <c r="E30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G30" s="2"/>
-      <c r="H30" s="13" t="s">
+      <c r="H30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="13" t="s">
+      <c r="I30" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="2">
         <v>2018.0</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E31" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="13" t="s">
+      <c r="E31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G31" s="2"/>
-      <c r="H31" s="13" t="s">
+      <c r="H31" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I31" s="13" t="s">
+      <c r="I31" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B32" s="13">
+      <c r="B32" s="2">
         <v>1990.0</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E32" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="13" t="s">
+      <c r="E32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G32" s="2"/>
-      <c r="H32" s="13">
+      <c r="H32" s="2">
         <v>816.0</v>
       </c>
-      <c r="I32" s="13" t="s">
+      <c r="I32" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="13">
+      <c r="B33" s="2">
         <v>1997.0</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E33" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="13" t="s">
+      <c r="E33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G33" s="2"/>
-      <c r="H33" s="13">
+      <c r="H33" s="2">
         <v>817.0</v>
       </c>
-      <c r="I33" s="13" t="s">
+      <c r="I33" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="A34" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="13">
+        <v>1995.0</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
+      <c r="H34" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="2"/>
@@ -2279,28 +2306,28 @@
         <v>7</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J72" s="14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G73" s="2"/>
       <c r="H73" s="2">
@@ -2310,43 +2337,43 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G74" s="2"/>
       <c r="H74" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I74" s="2"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G75" s="2"/>
       <c r="H75" s="2">
@@ -2356,20 +2383,20 @@
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G76" s="2"/>
       <c r="H76" s="2">
@@ -2379,20 +2406,20 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G77" s="2"/>
       <c r="H77" s="2">
@@ -2402,20 +2429,20 @@
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G78" s="2"/>
       <c r="H78" s="2">
@@ -2425,43 +2452,43 @@
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G79" s="2"/>
       <c r="H79" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I79" s="2"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2">
@@ -2475,16 +2502,16 @@
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G81" s="2"/>
       <c r="H81" s="2">
@@ -2494,7 +2521,7 @@
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2" t="s">
@@ -2507,11 +2534,11 @@
         <v>13</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G82" s="2"/>
       <c r="H82" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I82" s="2"/>
     </row>
@@ -2521,20 +2548,20 @@
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G83" s="2"/>
       <c r="H83" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I83" s="2"/>
     </row>
@@ -2544,16 +2571,16 @@
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G84" s="2"/>
       <c r="H84" s="2">
@@ -2563,20 +2590,20 @@
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G85" s="2"/>
       <c r="H85" s="2">
@@ -2590,16 +2617,16 @@
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G86" s="2"/>
       <c r="H86" s="2">
@@ -2613,16 +2640,16 @@
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
